--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220521_110206.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220521_110206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="256">
   <si>
     <t>사이트</t>
   </si>
@@ -688,7 +688,7 @@
     <t>꿈의엔진</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SM</t>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>빅히트</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>니즈먼트</t>
@@ -1197,7 +1194,7 @@
         <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1249,7 +1246,7 @@
         <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1275,7 +1272,7 @@
         <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1327,7 +1324,7 @@
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1353,7 +1350,7 @@
         <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1379,7 +1376,7 @@
         <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1405,7 +1402,7 @@
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1431,7 +1428,7 @@
         <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1483,7 +1480,7 @@
         <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1509,7 +1506,7 @@
         <v>222</v>
       </c>
       <c r="H14" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1561,7 +1558,7 @@
         <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1587,7 +1584,7 @@
         <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1613,7 +1610,7 @@
         <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1639,7 +1636,7 @@
         <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1665,7 +1662,7 @@
         <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1691,7 +1688,7 @@
         <v>227</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1717,7 +1714,7 @@
         <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1743,7 +1740,7 @@
         <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1769,7 +1766,7 @@
         <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1795,7 +1792,7 @@
         <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1821,7 +1818,7 @@
         <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1847,7 +1844,7 @@
         <v>220</v>
       </c>
       <c r="H27" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1873,7 +1870,7 @@
         <v>229</v>
       </c>
       <c r="H28" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1899,7 +1896,7 @@
         <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1925,7 +1922,7 @@
         <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1951,7 +1948,7 @@
         <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2029,7 +2026,7 @@
         <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2055,7 +2052,7 @@
         <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,7 +2078,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2104,7 @@
         <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,7 +2130,7 @@
         <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,7 +2156,7 @@
         <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2211,7 +2208,7 @@
         <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2237,7 +2234,7 @@
         <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2263,7 +2260,7 @@
         <v>228</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2289,7 +2286,7 @@
         <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2315,7 +2312,7 @@
         <v>230</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2341,7 +2338,7 @@
         <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2367,7 +2364,7 @@
         <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2393,7 +2390,7 @@
         <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2445,7 +2442,7 @@
         <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2497,7 +2494,7 @@
         <v>239</v>
       </c>
       <c r="H52" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2523,7 +2520,7 @@
         <v>240</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2549,7 +2546,7 @@
         <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2575,7 +2572,7 @@
         <v>222</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,7 +2598,7 @@
         <v>242</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2627,7 +2624,7 @@
         <v>243</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2679,7 +2676,7 @@
         <v>230</v>
       </c>
       <c r="H59" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2757,7 +2754,7 @@
         <v>217</v>
       </c>
       <c r="H62" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2783,7 +2780,7 @@
         <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2809,7 +2806,7 @@
         <v>234</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2835,7 +2832,7 @@
         <v>230</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,7 +2858,7 @@
         <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2887,7 +2884,7 @@
         <v>230</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2913,7 +2910,7 @@
         <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2936,10 +2933,10 @@
         <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="H69" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2965,7 +2962,7 @@
         <v>230</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2991,7 +2988,7 @@
         <v>230</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3017,7 +3014,7 @@
         <v>222</v>
       </c>
       <c r="H72" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3040,10 +3037,10 @@
         <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3069,7 +3066,7 @@
         <v>238</v>
       </c>
       <c r="H74" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3095,7 +3092,7 @@
         <v>223</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3170,10 +3167,10 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3196,10 +3193,10 @@
         <v>204</v>
       </c>
       <c r="G79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3248,10 +3245,10 @@
         <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H81" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3274,10 +3271,10 @@
         <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3303,7 +3300,7 @@
         <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3326,10 +3323,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H84" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3352,10 +3349,10 @@
         <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3378,10 +3375,10 @@
         <v>209</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H86" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3433,7 +3430,7 @@
         <v>227</v>
       </c>
       <c r="H88" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3456,10 +3453,10 @@
         <v>211</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3537,7 +3534,7 @@
         <v>222</v>
       </c>
       <c r="H92" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3563,7 +3560,7 @@
         <v>224</v>
       </c>
       <c r="H93" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3612,10 +3609,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H95" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3641,7 +3638,7 @@
         <v>234</v>
       </c>
       <c r="H96" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3664,10 +3661,10 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H97" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3693,7 +3690,7 @@
         <v>217</v>
       </c>
       <c r="H98" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3719,7 +3716,7 @@
         <v>224</v>
       </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3742,10 +3739,10 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H100" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3768,10 +3765,10 @@
         <v>216</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
